--- a/data/trans_dic/P33B_R5-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P33B_R5-Estudios-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1139046171064234</v>
+        <v>0.1151661438887773</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2431206629983401</v>
+        <v>0.2437648202169673</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1982666666308856</v>
+        <v>0.1961136293464418</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1666023221326767</v>
+        <v>0.1665764423629385</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2897908967982439</v>
+        <v>0.2915100820415718</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2343651544346896</v>
+        <v>0.230576528243675</v>
       </c>
     </row>
     <row r="7">
@@ -625,7 +625,7 @@
         <v>0.09103711033349993</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.07202473207168988</v>
+        <v>0.0720247320716899</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.04538865999640594</v>
+        <v>0.04460558095729828</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.08120834485160641</v>
+        <v>0.08137376394267792</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.06533447440074287</v>
+        <v>0.06530482815334032</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.06608199707917954</v>
+        <v>0.06307794756795748</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1020124265991898</v>
+        <v>0.1018408214038937</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.0798897626993804</v>
+        <v>0.0796796124787072</v>
       </c>
     </row>
     <row r="10">
@@ -674,13 +674,13 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.05348157286138564</v>
+        <v>0.05348157286138563</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.07683769036578884</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.06534766591438471</v>
+        <v>0.06534766591438468</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.03792168588268762</v>
+        <v>0.03838627936102383</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.06282457508793496</v>
+        <v>0.06193423415507916</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.05368223059791417</v>
+        <v>0.05403976621260464</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.07058196625334812</v>
+        <v>0.07092703254120396</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.09744078186872369</v>
+        <v>0.09548046553136798</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.07691985273111618</v>
+        <v>0.07758842084121829</v>
       </c>
     </row>
     <row r="13">
@@ -729,13 +729,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.06751986643566084</v>
+        <v>0.06751986643566085</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.126906119884647</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.09806427060554629</v>
+        <v>0.0980642706055463</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.05910002592208498</v>
+        <v>0.05941365855516587</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1176887750098777</v>
+        <v>0.1191230541305849</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.0920043345479654</v>
+        <v>0.09216068728227692</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.07649266084489624</v>
+        <v>0.07614969567134776</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1360181376209316</v>
+        <v>0.1368673851217791</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.104157627117801</v>
+        <v>0.1049799894502144</v>
       </c>
     </row>
     <row r="16">
@@ -910,13 +910,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>65785</v>
+        <v>66513</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>199534</v>
+        <v>200062</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>277229</v>
+        <v>274218</v>
       </c>
     </row>
     <row r="7">
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>96220</v>
+        <v>96205</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>237837</v>
+        <v>239248</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>327704</v>
+        <v>322406</v>
       </c>
     </row>
     <row r="8">
@@ -982,13 +982,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>101193</v>
+        <v>99447</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>176281</v>
+        <v>176640</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>287485</v>
+        <v>287355</v>
       </c>
     </row>
     <row r="11">
@@ -999,13 +999,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>147329</v>
+        <v>140631</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>221441</v>
+        <v>221068</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>351532</v>
+        <v>350607</v>
       </c>
     </row>
     <row r="12">
@@ -1054,13 +1054,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>26985</v>
+        <v>27315</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>46168</v>
+        <v>45514</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>77649</v>
+        <v>78167</v>
       </c>
     </row>
     <row r="15">
@@ -1071,13 +1071,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>50225</v>
+        <v>50471</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>71607</v>
+        <v>70166</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>111262</v>
+        <v>112229</v>
       </c>
     </row>
     <row r="16">
@@ -1126,13 +1126,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>207950</v>
+        <v>209054</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>438546</v>
+        <v>443891</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>666565</v>
+        <v>667698</v>
       </c>
     </row>
     <row r="19">
@@ -1143,13 +1143,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>269148</v>
+        <v>267941</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>506847</v>
+        <v>510012</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>754615</v>
+        <v>760573</v>
       </c>
     </row>
     <row r="20">
